--- a/卒業研究_シフトデータ.xlsx
+++ b/卒業研究_シフトデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konan365-my.sharepoint.com/personal/s2071092_s_konan-u_ac_jp/Documents/卒研/shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{5AC61EC7-D138-4B6A-A06E-09E6AC4B6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DCC2F8-373A-47C2-A39E-35FB60CF11B2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{5AC61EC7-D138-4B6A-A06E-09E6AC4B6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282D4111-F9B2-4C23-AA54-D61A57C629EC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{34A64247-BAE4-45B9-9774-94A83B6608DF}"/>
   </bookViews>
@@ -124,17 +124,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73C796C-2058-41C4-9AF5-2B6D4FC4AC4F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -475,31 +472,30 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業研究_シフトデータ.xlsx
+++ b/卒業研究_シフトデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konan365-my.sharepoint.com/personal/s2071092_s_konan-u_ac_jp/Documents/卒研/shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{5AC61EC7-D138-4B6A-A06E-09E6AC4B6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282D4111-F9B2-4C23-AA54-D61A57C629EC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{5AC61EC7-D138-4B6A-A06E-09E6AC4B6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E39C426-AA7D-4D84-B2B6-503C8882C359}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{34A64247-BAE4-45B9-9774-94A83B6608DF}"/>
+    <workbookView xWindow="1140" yWindow="590" windowWidth="12750" windowHeight="9490" xr2:uid="{34A64247-BAE4-45B9-9774-94A83B6608DF}"/>
   </bookViews>
   <sheets>
     <sheet name="入力データ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>仕事</t>
     <rPh sb="0" eb="2">
@@ -70,6 +70,13 @@
     <t>音聞き</t>
     <rPh sb="0" eb="2">
       <t>オトキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -450,10 +457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C4B749-B1D2-45E6-86B8-32986F10B248}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -463,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73C796C-2058-41C4-9AF5-2B6D4FC4AC4F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
